--- a/document/table.xlsx
+++ b/document/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wode2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wode2\Desktop\File\毕设相关\毕业设计\presentRep_FinalDesign\LE-FINAL-DESIGN\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C068F-DFE7-442A-83CD-9CEE747478FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24791A0-A68A-46A0-8F17-216794351E4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="792" windowWidth="11520" windowHeight="12168" activeTab="1" xr2:uid="{08395489-7499-48FB-BB34-5A29CA065D79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" firstSheet="8" activeTab="9" xr2:uid="{08395489-7499-48FB-BB34-5A29CA065D79}"/>
   </bookViews>
   <sheets>
     <sheet name="系统规划" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="企业过程明细" sheetId="7" r:id="rId7"/>
     <sheet name="数据类解释说明" sheetId="8" r:id="rId8"/>
     <sheet name="UC矩阵的建立与处理" sheetId="9" r:id="rId9"/>
-    <sheet name="数据项" sheetId="10" r:id="rId10"/>
-    <sheet name="数据字典---数据结构" sheetId="11" r:id="rId11"/>
-    <sheet name="数据字典--数据流" sheetId="12" r:id="rId12"/>
-    <sheet name="数据存储" sheetId="13" r:id="rId13"/>
-    <sheet name=" 外部实体" sheetId="14" r:id="rId14"/>
-    <sheet name="逻辑处理" sheetId="16" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId10"/>
+    <sheet name="数据项" sheetId="10" r:id="rId11"/>
+    <sheet name="数据字典---数据结构" sheetId="11" r:id="rId12"/>
+    <sheet name="数据字典--数据流" sheetId="12" r:id="rId13"/>
+    <sheet name="数据存储" sheetId="13" r:id="rId14"/>
+    <sheet name=" 外部实体" sheetId="14" r:id="rId15"/>
+    <sheet name="逻辑处理" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="125">
   <si>
     <t>战略规划</t>
   </si>
@@ -280,6 +281,194 @@
   </si>
   <si>
     <t>财务汇总单</t>
+  </si>
+  <si>
+    <t>客服人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业计划人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户服务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记集装箱信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记客户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用结算</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集装箱的检验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶配载作业</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划调度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装卸船</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装船</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸船</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备调度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施调度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员调度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程              数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集装箱数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出船数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装船数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸船数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒箱数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记船舶信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶结构数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息录入与生成子系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶信息子系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶配载计划调度作业子系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事子系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询子系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -344,7 +533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +546,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -464,13 +659,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,9 +732,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,6 +749,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -512,6 +760,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,33 +1117,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F898B0-07E2-450E-812D-3B7175416ADD}">
-  <dimension ref="B3:J13"/>
+  <dimension ref="B3:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -980,6 +1272,23 @@
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -994,6 +1303,899 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B342D6EA-296A-4E25-9C94-4F1BFE1108A1}">
+  <dimension ref="D3:T38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:T39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="7" width="6.21875" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:20" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+    </row>
+    <row r="8" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D18" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="4:19" ht="84" x14ac:dyDescent="0.25">
+      <c r="D23" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D28" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D35" s="18"/>
+      <c r="E35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+    </row>
+    <row r="37" spans="4:19" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" s="18"/>
+    </row>
+    <row r="38" spans="4:19" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S38" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F24:I27"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="L30:Q36"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446CED77-1EA7-4C78-AE3E-221554889353}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1008,7 +2210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0B1EF0-2985-482E-A922-4C5928833489}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1021,7 +2223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3D788A-A672-495B-8EB4-E81DC2E95898}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1036,7 +2238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6C8C99-77C9-4627-A4DB-B37967C45414}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1051,7 +2253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6893F80-F0D9-4C7F-AFC6-B69E92FEF2F2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1066,7 +2268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69431198-EC93-4719-A6C4-5B694E5BF07B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1085,7 +2287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2A4DEF-5776-496E-AB2A-C18CFBB3A159}">
   <dimension ref="B3:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1098,21 +2300,21 @@
   <sheetData>
     <row r="3" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1122,7 +2324,7 @@
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1132,7 +2334,7 @@
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -1142,21 +2344,21 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1166,7 +2368,7 @@
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1176,7 +2378,7 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1186,21 +2388,21 @@
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1210,7 +2412,7 @@
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1220,7 +2422,7 @@
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1230,21 +2432,21 @@
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>4</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1254,7 +2456,7 @@
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1264,7 +2466,7 @@
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1274,21 +2476,21 @@
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>5</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1298,7 +2500,7 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1308,7 +2510,7 @@
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -1318,21 +2520,21 @@
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>6</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -1342,7 +2544,7 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -1352,7 +2554,7 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -1362,21 +2564,21 @@
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>7</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -1386,7 +2588,7 @@
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="2:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -1396,7 +2598,7 @@
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -1406,21 +2608,21 @@
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>8</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -1430,7 +2632,7 @@
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="11"/>
@@ -1438,7 +2640,7 @@
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -1448,21 +2650,21 @@
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>9</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -1472,7 +2674,7 @@
       <c r="E37" s="13"/>
     </row>
     <row r="38" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -1482,7 +2684,7 @@
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -1492,21 +2694,21 @@
       <c r="E39" s="13"/>
     </row>
     <row r="40" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>10</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -1516,7 +2718,7 @@
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -1526,7 +2728,7 @@
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -1536,21 +2738,21 @@
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>11</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -1560,7 +2762,7 @@
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="2:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -1570,7 +2772,7 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -1581,6 +2783,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="C47:E47"/>
@@ -1590,30 +2816,6 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1709,13 +2911,893 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC787B44-5607-4DF1-B0F8-9794D5B9BB6F}">
-  <dimension ref="A1"/>
+  <dimension ref="D3:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W31" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="7" width="6.21875" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
+    <col min="9" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:20" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:20" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+    </row>
+    <row r="8" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D18" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="4:19" ht="84" x14ac:dyDescent="0.25">
+      <c r="D23" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D28" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D35" s="18"/>
+      <c r="E35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+    </row>
+    <row r="37" spans="4:19" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" s="18"/>
+    </row>
+    <row r="38" spans="4:19" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="S38" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F24:I27"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="L30:Q36"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>